--- a/media/profile/generated_files/Invigilators_List-wrc.xlsx
+++ b/media/profile/generated_files/Invigilators_List-wrc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,126 +468,62 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>wrc teacher`</t>
+          <t>wrc teacher1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>test@gmail.com</t>
+          <t>abcdefg@gmail.com</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>+13442322</t>
+          <t>78236</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Gagangauda</t>
+          <t>ktm</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Department of Civil Engineering</t>
+          <t>Computer</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Professor</t>
+          <t>teacher</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Ayush</t>
+          <t>wrc2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ayush.parajuli915@gmail.com</t>
+          <t>qwerty@gmail.com</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>+13442322</t>
+          <t>297392</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Gagangauda</t>
+          <t>pkr</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Department of Electrical Engineering</t>
+          <t>Civil</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
-        <is>
-          <t>Teacher</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>wrc teacher1</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>abcdefg@gmail.com</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>78236</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>ktm</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Computer</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>teacher</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>wrc2</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>qwerty@gmail.com</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>297392</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>pkr</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Civil</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
         <is>
           <t>professor</t>
         </is>

--- a/media/profile/generated_files/Invigilators_List-wrc.xlsx
+++ b/media/profile/generated_files/Invigilators_List-wrc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,62 +468,94 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>wrc teacher1</t>
+          <t>wrc teacher`</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>abcdefg@gmail.com</t>
+          <t>test@gmail.com</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>78236</t>
+          <t>+13442322</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ktm</t>
+          <t>Gagangauda</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Computer</t>
+          <t>Department of Computer and Electronics Engineering</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>teacher</t>
+          <t>Professor</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
+          <t>wrc teacher1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>abcdefg@gmail.com</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>78236</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ktm</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
           <t>wrc2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>qwerty@gmail.com</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>297392</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>pkr</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>Civil</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>professor</t>
         </is>

--- a/media/profile/generated_files/Invigilators_List-wrc.xlsx
+++ b/media/profile/generated_files/Invigilators_List-wrc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,49 +468,49 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>wrc teacher`</t>
+          <t>admin inv 2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>test@gmail.com</t>
+          <t>admininv2@gmail.com</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>+13442322</t>
+          <t>12346</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Gagangauda</t>
+          <t>pkr</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Department of Computer and Electronics Engineering</t>
+          <t>Civil</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Professor</t>
+          <t>professor</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>wrc teacher1</t>
+          <t>admin inv 3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>abcdefg@gmail.com</t>
+          <t>admininv3@gmail.com</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>78236</t>
+          <t>12347</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -532,17 +532,17 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>wrc2</t>
+          <t>admin inv 4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>qwerty@gmail.com</t>
+          <t>admininv4@gmail.com</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>297392</t>
+          <t>12348</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -556,6 +556,198 @@
         </is>
       </c>
       <c r="F4" t="inlineStr">
+        <is>
+          <t>professor</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>admin inv 7</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>admininv7@gmail.com</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>12351</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ktm</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>admin inv 8</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>admininv8@gmail.com</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>12352</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>pkr</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Civil</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>professor</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>admin inv 9</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>admininv9@gmail.com</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>12353</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ktm</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>admin inv 1</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>admininv1@gmail.com</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ktm</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>admin inv 5</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>12349</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ktm</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>admin inv 6</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>12350</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>pkr</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Civil</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>professor</t>
         </is>
